--- a/test plan/Servers - Test Scenarios and Conditions.xlsx
+++ b/test plan/Servers - Test Scenarios and Conditions.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -198,24 +201,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -493,7 +524,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,8 +570,8 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -553,8 +584,8 @@
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
@@ -565,8 +596,8 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
@@ -577,8 +608,8 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
@@ -589,22 +620,22 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
@@ -615,8 +646,8 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="9">
@@ -631,8 +662,8 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="9">
         <v>1</v>
       </c>
@@ -645,36 +676,36 @@
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
